--- a/statistics/HistoricalDistanceData/historical_distance/Q22025837-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q22025837-en.xlsx
@@ -31,52 +31,52 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Live results from the North Carolina primary</t>
+  </si>
+  <si>
+    <t>NBC's Final Battleground Map Shows Clinton With a Significant Lead</t>
+  </si>
+  <si>
+    <t>Clinton’s North Carolina Firewall</t>
+  </si>
+  <si>
     <t>The Final 15: The Latest Polls in the Swing States That Will Decide the Election</t>
   </si>
   <si>
-    <t>Clinton’s North Carolina Firewall</t>
-  </si>
-  <si>
     <t>NC approves 27 candidates for presidential primary ballots</t>
   </si>
   <si>
-    <t>NBC's Final Battleground Map Shows Clinton With a Significant Lead</t>
-  </si>
-  <si>
-    <t>Live results from the North Carolina primary</t>
+    <t>2016-03-15T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2016-11-07T13:17:36UTC</t>
+  </si>
+  <si>
+    <t>2016-11-04T15:03:00UTC</t>
   </si>
   <si>
     <t>2016-11-07T15:39:00UTC</t>
   </si>
   <si>
-    <t>2016-11-04T15:03:00UTC</t>
-  </si>
-  <si>
     <t>2015-04-13T00:00:00UTC</t>
   </si>
   <si>
-    <t>2016-11-07T13:17:36UTC</t>
-  </si>
-  <si>
-    <t>2016-03-15T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://graphics.latimes.com/election-2016-north-carolina-results/</t>
+  </si>
+  <si>
+    <t>http://www.nbcnews.com/storyline/2016-election-day/nbc-s-final-battleground-map-shows-clinton-edge-n678926</t>
+  </si>
+  <si>
+    <t>https://www.usnews.com/news/the-run-2016/articles/2016-11-04/hillary-clintons-north-carolina-firewall-vs-donald-trump</t>
+  </si>
+  <si>
     <t>https://abcnews.go.com/Politics/final-15-latest-polls-swing-states-decide-election/story?id=43277505</t>
   </si>
   <si>
-    <t>https://www.usnews.com/news/the-run-2016/articles/2016-11-04/hillary-clintons-north-carolina-firewall-vs-donald-trump</t>
-  </si>
-  <si>
     <t>http://www.wral.com/board-of-elections-sets-presidential-primary-ballots/15215886/</t>
-  </si>
-  <si>
-    <t>http://www.nbcnews.com/storyline/2016-election-day/nbc-s-final-battleground-map-shows-clinton-edge-n678926</t>
-  </si>
-  <si>
-    <t>http://graphics.latimes.com/election-2016-north-carolina-results/</t>
   </si>
 </sst>
 </file>
